--- a/Practice_File_Day 2.xlsx
+++ b/Practice_File_Day 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Jazaul_Hasan_Data_Anylytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A5EA3C-F8C9-41B5-9108-E00E263FFF5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03224D9-15DC-4CFB-A5B5-E9C8BE020ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,28 +200,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -499,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:I11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32C5421-1F96-4D1B-BB4C-77D749DBAFB2}">
   <dimension ref="D4:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
